--- a/finance/基金/实践/易方达消费行业.xlsx
+++ b/finance/基金/实践/易方达消费行业.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>基金情况</t>
   </si>
@@ -51,12 +51,24 @@
     <t>净值</t>
   </si>
   <si>
+    <t>确认金额</t>
+  </si>
+  <si>
     <t>定投买入</t>
   </si>
   <si>
     <t>买入</t>
   </si>
   <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>手续费 10.42</t>
+  </si>
+  <si>
+    <t>手续费 87.74</t>
+  </si>
+  <si>
     <t>卖出（份）</t>
   </si>
   <si>
@@ -69,23 +81,30 @@
     <t>期末资产</t>
   </si>
   <si>
+    <t>约</t>
+  </si>
+  <si>
     <t>总投资时间（月）</t>
   </si>
   <si>
     <t>XIRR年收益率</t>
+  </si>
+  <si>
+    <t>即年化42%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,6 +122,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -111,51 +177,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -164,22 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,48 +215,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,37 +268,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,12 +442,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -304,132 +449,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,51 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,16 +480,48 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -530,13 +536,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,137 +579,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +723,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1057,13 +1079,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E42"/>
+  <dimension ref="A2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="3" max="3" width="12.625"/>
@@ -1079,7 +1101,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -1095,7 +1117,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1110,6 +1132,9 @@
       </c>
       <c r="E9" t="s">
         <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1117,7 +1142,7 @@
         <v>43166</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>-400</v>
@@ -1128,7 +1153,7 @@
         <v>43199</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>-400</v>
@@ -1139,7 +1164,7 @@
         <v>43227</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>-400</v>
@@ -1150,7 +1175,7 @@
         <v>43258</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>-400</v>
@@ -1161,7 +1186,7 @@
         <v>43279</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>-400</v>
@@ -1172,7 +1197,7 @@
         <v>43290</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>-400</v>
@@ -1183,7 +1208,7 @@
         <v>43319</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>-400</v>
@@ -1194,7 +1219,7 @@
         <v>43350</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>-400</v>
@@ -1205,7 +1230,7 @@
         <v>43354</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>-300</v>
@@ -1216,7 +1241,7 @@
         <v>43380</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <v>-400</v>
@@ -1227,7 +1252,7 @@
         <v>43381</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>-300</v>
@@ -1238,7 +1263,7 @@
         <v>43384</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4">
         <v>-400</v>
@@ -1249,7 +1274,7 @@
         <v>43391</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4">
         <v>-300</v>
@@ -1260,7 +1285,7 @@
         <v>43399</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
         <v>-300</v>
@@ -1271,7 +1296,7 @@
         <v>43411</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4">
         <v>-400</v>
@@ -1282,7 +1307,7 @@
         <v>43424</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
         <v>-300</v>
@@ -1293,7 +1318,7 @@
         <v>43441</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>-400</v>
@@ -1304,7 +1329,7 @@
         <v>43454</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>-500</v>
@@ -1315,7 +1340,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
         <v>-400</v>
@@ -1326,7 +1351,7 @@
         <v>43531</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4">
         <v>-400</v>
@@ -1337,7 +1362,7 @@
         <v>43563</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
         <v>-400</v>
@@ -1345,75 +1370,140 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3">
-        <v>43577</v>
+        <v>43592</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
       </c>
       <c r="C31" s="4">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <v>43592</v>
+      </c>
+      <c r="C32" s="4">
         <v>10400</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3"/>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>43591</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2526</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2.526</v>
+      </c>
+      <c r="F33">
+        <v>2515.58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3">
+        <v>43592</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4">
+        <v>7960.65</v>
+      </c>
+      <c r="D34">
+        <v>3042.48</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2.602</v>
+      </c>
+      <c r="F34">
+        <v>7872.91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
       <c r="C35" s="4"/>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3"/>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="36" spans="3:3">
       <c r="C36" s="4"/>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="1:4">
+      <c r="A38" s="3"/>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
       <c r="C38" s="4"/>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="4">
-        <f>SUM(C10:C30)</f>
-        <v>-8000</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    <row r="41" spans="3:3">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42">
-        <f>XIRR(C10:C31,A10:A31)</f>
-        <v>0.550092242101545</v>
+        <v>19</v>
+      </c>
+      <c r="C42" s="4">
+        <f>SUM(C10:C31)</f>
+        <v>-8400</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="4">
+        <v>10400</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <f>XIRR(C10:C32,A10:A32)</f>
+        <v>0.420172328127239</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
